--- a/target/classes/testData/patientData.xlsx
+++ b/target/classes/testData/patientData.xlsx
@@ -70,7 +70,7 @@
     <t>Female</t>
   </si>
   <si>
-    <t>August 17 2003</t>
+    <t>August/17/2003</t>
   </si>
   <si>
     <t xml:space="preserve">510 Carolann Walk     </t>
@@ -100,7 +100,7 @@
     <t>Schumm</t>
   </si>
   <si>
-    <t>November 22 1989</t>
+    <t>November/22/1989</t>
   </si>
   <si>
     <t xml:space="preserve">1304 Zaida Prairie    </t>
@@ -136,7 +136,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>January 15 1994</t>
+    <t>June/27/1943</t>
   </si>
   <si>
     <t xml:space="preserve">87484 Torp Mews       </t>
@@ -169,7 +169,7 @@
     <t>Nikolaus</t>
   </si>
   <si>
-    <t>December 07 1991</t>
+    <t>December/07/1991</t>
   </si>
   <si>
     <t xml:space="preserve">8698 Schaden Creek    </t>
@@ -199,7 +199,7 @@
     <t>Roob</t>
   </si>
   <si>
-    <t>January 22 1961</t>
+    <t>January/22/1961</t>
   </si>
   <si>
     <t xml:space="preserve">951 Rafael Branch     </t>
@@ -226,7 +226,7 @@
     <t>Beahan</t>
   </si>
   <si>
-    <t>August 31 1971</t>
+    <t>August/31/1971</t>
   </si>
   <si>
     <t>66993 Alberta Junction</t>
@@ -250,7 +250,7 @@
     <t>Roberts</t>
   </si>
   <si>
-    <t>February 02 1957</t>
+    <t>February/02/1957</t>
   </si>
   <si>
     <t xml:space="preserve">13717 Von Passage     </t>
@@ -277,7 +277,7 @@
     <t>Jacobson</t>
   </si>
   <si>
-    <t>November 22 1957</t>
+    <t>November/22/1957</t>
   </si>
   <si>
     <t>4367 Florencio Prairie</t>
@@ -307,7 +307,7 @@
     <t>Reichel</t>
   </si>
   <si>
-    <t>December 29 1970</t>
+    <t>December/29/1970</t>
   </si>
   <si>
     <t xml:space="preserve">087 Barney Ridges     </t>
@@ -334,7 +334,7 @@
     <t>Gottlieb</t>
   </si>
   <si>
-    <t>January 03 1988</t>
+    <t>January/03/1988</t>
   </si>
   <si>
     <t xml:space="preserve">313 Cremin Drives     </t>
@@ -367,7 +367,7 @@
     <t>Runte</t>
   </si>
   <si>
-    <t>January 20 1986</t>
+    <t>January/20/1986</t>
   </si>
   <si>
     <t xml:space="preserve">637 Marquardt Valley  </t>
@@ -391,7 +391,7 @@
     <t>Turcotte</t>
   </si>
   <si>
-    <t>June 04 1971</t>
+    <t>June/04/1971</t>
   </si>
   <si>
     <t xml:space="preserve">349 Darcy Roads       </t>
@@ -415,7 +415,7 @@
     <t>Willms</t>
   </si>
   <si>
-    <t>March 17 1994</t>
+    <t>March/17/1994</t>
   </si>
   <si>
     <t xml:space="preserve">4872 Gleichner View   </t>
@@ -439,7 +439,7 @@
     <t>Cummings</t>
   </si>
   <si>
-    <t>April 28 1988</t>
+    <t>April/28/1988</t>
   </si>
   <si>
     <t xml:space="preserve">890 Hermann Crossing  </t>
@@ -463,7 +463,7 @@
     <t>O'Keefe</t>
   </si>
   <si>
-    <t>August 31 1979</t>
+    <t>August/31/1979</t>
   </si>
   <si>
     <t xml:space="preserve">32867 Hackett Manors  </t>
@@ -484,7 +484,7 @@
     <t>Reynolds</t>
   </si>
   <si>
-    <t>December 08 1972</t>
+    <t>December/08/1972</t>
   </si>
   <si>
     <t xml:space="preserve">2618 Hank Forge       </t>
@@ -511,7 +511,7 @@
     <t>Weimann</t>
   </si>
   <si>
-    <t>December 10 1935</t>
+    <t>December/10/1935</t>
   </si>
   <si>
     <t xml:space="preserve">8371 Fay Hollow       </t>
@@ -538,7 +538,7 @@
     <t>Hodkiewicz</t>
   </si>
   <si>
-    <t>November 03 1948</t>
+    <t>November/03/1948</t>
   </si>
   <si>
     <t xml:space="preserve">085 Selena Crescent   </t>
@@ -562,7 +562,7 @@
     <t>Kutch</t>
   </si>
   <si>
-    <t>June 27 1926</t>
+    <t>June/27/1926</t>
   </si>
   <si>
     <t xml:space="preserve">665 Devorah Port      </t>
@@ -583,7 +583,7 @@
     <t>Schiller</t>
   </si>
   <si>
-    <t>Jully 26 1960</t>
+    <t>Jully/26/1960</t>
   </si>
   <si>
     <t xml:space="preserve">390 Gretta Hollow     </t>
@@ -610,7 +610,7 @@
     <t>Morissette</t>
   </si>
   <si>
-    <t>Jully 08 1937</t>
+    <t>Jully/08/1937</t>
   </si>
   <si>
     <t xml:space="preserve">60674 Maxima Islands  </t>
@@ -634,7 +634,7 @@
     <t>Lebsack</t>
   </si>
   <si>
-    <t>January 25 1963</t>
+    <t>January/25/1963</t>
   </si>
   <si>
     <t xml:space="preserve">5877 McCullough Track </t>
@@ -655,7 +655,7 @@
     <t>Reinger</t>
   </si>
   <si>
-    <t>September 29 1974</t>
+    <t>September/29/1974</t>
   </si>
   <si>
     <t xml:space="preserve">0074 Kessler Rest     </t>
@@ -673,7 +673,7 @@
     <t>White</t>
   </si>
   <si>
-    <t>January 26 1962</t>
+    <t>January/26/1962</t>
   </si>
   <si>
     <t xml:space="preserve">234 Robel Rue         </t>
@@ -694,7 +694,7 @@
     <t>Nolan</t>
   </si>
   <si>
-    <t>Jully 10 1950</t>
+    <t>Jully/10/1950</t>
   </si>
   <si>
     <t xml:space="preserve">870 Somer Place       </t>
@@ -718,7 +718,7 @@
     <t>Walter</t>
   </si>
   <si>
-    <t>April 23 1969</t>
+    <t>April/23/1969</t>
   </si>
   <si>
     <t xml:space="preserve">13198 Philip Main     </t>
@@ -742,7 +742,7 @@
     <t>MacGyver</t>
   </si>
   <si>
-    <t>December 12 1978</t>
+    <t>December/12/1978</t>
   </si>
   <si>
     <t xml:space="preserve">9544 Yundt Spurs      </t>
@@ -760,7 +760,7 @@
     <t>Konopelski</t>
   </si>
   <si>
-    <t>June 25 1972</t>
+    <t>June/25/1972</t>
   </si>
   <si>
     <t xml:space="preserve">26011 Van Motorway    </t>
@@ -790,7 +790,7 @@
     <t>Bechtelar</t>
   </si>
   <si>
-    <t>September 16 1998</t>
+    <t>September/16/1998</t>
   </si>
   <si>
     <t xml:space="preserve">9733 Emard Lakes      </t>
@@ -813,10 +813,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -834,8 +834,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,6 +844,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,6 +873,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -865,31 +889,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -903,10 +904,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -917,9 +927,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,45 +977,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -984,6 +984,120 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -993,37 +1107,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,37 +1149,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,97 +1167,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,21 +1178,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1216,6 +1201,47 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1246,182 +1272,156 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1762,7 +1762,7 @@
     <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1770,7 +1770,7 @@
     <col min="1" max="1" width="14.9375" customWidth="1"/>
     <col min="2" max="3" width="18.171875" customWidth="1"/>
     <col min="4" max="4" width="13.8125" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="23.375" customWidth="1"/>
     <col min="7" max="7" width="9.3125" customWidth="1"/>
     <col min="8" max="8" width="18.5625" customWidth="1"/>
